--- a/data/case1/2/V2_14.xlsx
+++ b/data/case1/2/V2_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999501361392</v>
+        <v>0.9999999936121029</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99825500585510807</v>
+        <v>0.99731590709603957</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.99249986188220629</v>
+        <v>0.99408874165908656</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.99694287135960935</v>
+        <v>0.99758702317637926</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.98829366389364892</v>
+        <v>0.98795880092599475</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.96814248034849104</v>
+        <v>0.96509516356814784</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.96224905860859866</v>
+        <v>0.96256653162832984</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.95439486015898467</v>
+        <v>0.95969733770111731</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.94473221632893034</v>
+        <v>0.95866195589715952</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.93598448357584108</v>
+        <v>0.95857665035849382</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.93473163435054674</v>
+        <v>0.95868312688103341</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.93260418329281491</v>
+        <v>0.95914248495169052</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.92426816356422625</v>
+        <v>0.9633379582707895</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.92135392210395528</v>
+        <v>0.96149483406614933</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.91997344648332269</v>
+        <v>0.96136391695502987</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.91892143322061581</v>
+        <v>0.96192896267180727</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.91818274833513236</v>
+        <v>0.95822143513145464</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.91707383254559549</v>
+        <v>0.95711254362214837</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99720177481940186</v>
+        <v>0.99305136606297817</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.99008474031700355</v>
+        <v>0.97242920994331772</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98868624747122325</v>
+        <v>0.96695955291371327</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98742174375452674</v>
+        <v>0.95825644095146933</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.98166360791594243</v>
+        <v>0.98705461664649452</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.96076133383954787</v>
+        <v>0.97403442724328082</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.94657843135030784</v>
+        <v>0.9675775473393613</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.96701748819647348</v>
+        <v>0.9618984971960598</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.9657013489921209</v>
+        <v>0.95705520377272402</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.96111357869989256</v>
+        <v>0.93559306503399653</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.95842671573234428</v>
+        <v>0.92032563798157008</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.95484888294256798</v>
+        <v>0.91375605749217792</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.94119165909788105</v>
+        <v>0.90610290441463026</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.93951237766598006</v>
+        <v>0.90442361572421803</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.93899236955792231</v>
+        <v>0.9039036142691248</v>
       </c>
     </row>
   </sheetData>
